--- a/packages/meditrak-server/src/tests/testData/surveys/importMultipleNewSurveys.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveys/importMultipleNewSurveys.xlsx
@@ -5,23 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\importSurveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC810B9-6D68-4E98-B175-B9A6FD9C1A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B1D79-57C0-442E-94F9-1260CE463343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test New Survey Import 3" sheetId="3" r:id="rId1"/>
-    <sheet name="Test New Survey Import 4" sheetId="2" r:id="rId2"/>
+    <sheet name="test_new_survey_import 2" sheetId="3" r:id="rId1"/>
+    <sheet name="test_new_survey_import 3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>code</t>
   </si>
@@ -68,34 +68,19 @@
     <t>detailLabel</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Sodium chloride 0.9% isotonic injectable solution</t>
-  </si>
-  <si>
-    <t>Sodium lactate,compound solution</t>
-  </si>
-  <si>
-    <t>Calcium gluconate 100mg/mL in 10mL ampoule injection</t>
-  </si>
-  <si>
-    <t>TEST_53ba14bfc_test</t>
-  </si>
-  <si>
-    <t>TEST_39bac4bfc_test</t>
-  </si>
-  <si>
-    <t>TEST_53b544bfc_test</t>
-  </si>
-  <si>
-    <t>TEST_43b544bfc_test</t>
-  </si>
-  <si>
-    <t>TEST_43ba14bfc_test</t>
-  </si>
-  <si>
-    <t>TEST_49bac4bfc_test</t>
+    <t>FreeText</t>
+  </si>
+  <si>
+    <t>fdfuu42a22321c123a8_test</t>
+  </si>
+  <si>
+    <t>Test question fdfuu42a22321c123a8_test</t>
+  </si>
+  <si>
+    <t>fdfzz42a66321c123a8_test</t>
+  </si>
+  <si>
+    <t>Test question fdfzz42a66321c123a8_test</t>
   </si>
 </sst>
 </file>
@@ -517,7 +502,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -571,16 +556,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -596,16 +581,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -620,18 +605,146 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A4">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91190F5A-C39F-47E3-9B71-45A0A62043BA}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -654,148 +767,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91190F5A-C39F-47E3-9B71-45A0A62043BA}">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/packages/meditrak-server/src/tests/testData/surveys/importMultipleNewSurveys.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveys/importMultipleNewSurveys.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B1D79-57C0-442E-94F9-1260CE463343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774777E1-E435-45C4-8CE3-A71A6F0C1CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_new_survey_import 2" sheetId="3" r:id="rId1"/>
-    <sheet name="test_new_survey_import 3" sheetId="2" r:id="rId2"/>
+    <sheet name="new_survey_import_2_test" sheetId="3" r:id="rId1"/>
+    <sheet name="new_survey_import_3_test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -638,7 +638,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
